--- a/experimental-data/tecan-data/19April2023/pfu_19April2023.xlsx
+++ b/experimental-data/tecan-data/19April2023/pfu_19April2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Host-Ecology-and-Host-Range/experimental-data/tecan-data/19April2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CB637B-DAF4-6540-B6B1-EA3E27E77EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBE4D4-1D19-DB42-9825-064CD6BB6F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1480" windowWidth="27240" windowHeight="14820" xr2:uid="{BE0B40B7-C85D-DB42-96B3-F82CACA70345}"/>
   </bookViews>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEE3846-7B83-B44A-AE0F-D4CF4660A6ED}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,16 +692,16 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <f>10^-1</f>
+        <f t="shared" ref="H2:H17" si="0">10^-1</f>
         <v>0.1</v>
       </c>
       <c r="I2">
@@ -709,7 +709,7 @@
       </c>
       <c r="J2">
         <f>AVERAGE(E2,F2,G2)/(H2*I2)</f>
-        <v>25000</v>
+        <v>11666.666666666666</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -738,14 +738,14 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I3">
         <v>2E-3</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J50" si="0">AVERAGE(E3,F3,G3)/(H3*I3)</f>
+        <f t="shared" ref="J3:J50" si="1">AVERAGE(E3,F3,G3)/(H3*I3)</f>
         <v>20000</v>
       </c>
       <c r="L3" t="s">
@@ -775,14 +775,14 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I4">
         <v>2E-3</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31666.666666666664</v>
       </c>
       <c r="L4" t="s">
@@ -812,14 +812,14 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I5">
         <v>2E-3</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16666.666666666668</v>
       </c>
       <c r="L5" t="s">
@@ -849,14 +849,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I6">
         <v>2E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="K6" t="s">
@@ -889,14 +889,14 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I7">
         <v>2E-3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13333.333333333332</v>
       </c>
       <c r="K7" t="s">
@@ -929,14 +929,14 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I8">
         <v>2E-3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6666.6666666666661</v>
       </c>
       <c r="K8" t="s">
@@ -969,14 +969,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I9">
         <v>2E-3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="K9" t="s">
@@ -1009,14 +1009,14 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I10">
         <v>2E-3</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6666.6666666666661</v>
       </c>
       <c r="K10" t="s">
@@ -1049,14 +1049,14 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I11">
         <v>2E-3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="K11" t="s">
@@ -1089,14 +1089,14 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I12">
         <v>2E-3</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6666.6666666666661</v>
       </c>
       <c r="K12" t="s">
@@ -1129,14 +1129,14 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I13">
         <v>2E-3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="K13" t="s">
@@ -1169,14 +1169,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I14">
         <v>2E-3</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6666.6666666666661</v>
       </c>
       <c r="K14" t="s">
@@ -1209,14 +1209,14 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I15">
         <v>2E-3</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18333.333333333332</v>
       </c>
       <c r="K15" t="s">
@@ -1249,14 +1249,14 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I16">
         <v>2E-3</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="K16" t="s">
@@ -1289,14 +1289,14 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>10^-1</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I17">
         <v>2E-3</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="K17" t="s">
@@ -1335,7 +1335,7 @@
         <v>2E-3</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1333.3333333333333</v>
       </c>
       <c r="K18" t="s">
@@ -1374,7 +1374,7 @@
         <v>2E-3</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="K19" t="s">
@@ -1413,7 +1413,7 @@
         <v>2E-3</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="K20" t="s">
@@ -1452,7 +1452,7 @@
         <v>2E-3</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1166.6666666666667</v>
       </c>
       <c r="K21" t="s">
@@ -1491,7 +1491,7 @@
         <v>2E-3</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="K22" t="s">
@@ -1530,7 +1530,7 @@
         <v>2E-3</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="K23" t="s">
@@ -1569,7 +1569,7 @@
         <v>2E-3</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11666.666666666666</v>
       </c>
       <c r="K24" t="s">
@@ -1608,7 +1608,7 @@
         <v>2E-3</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6666.6666666666661</v>
       </c>
       <c r="K25" t="s">
@@ -1647,7 +1647,7 @@
         <v>2E-3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="K26" t="s">
@@ -1687,7 +1687,7 @@
         <v>2E-3</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="K27" t="s">
@@ -1727,7 +1727,7 @@
         <v>2E-3</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="K28" t="s">
@@ -1760,14 +1760,14 @@
         <v>6</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H47" si="1">10^-1</f>
+        <f t="shared" ref="H29:H47" si="2">10^-1</f>
         <v>0.1</v>
       </c>
       <c r="I29">
         <v>2E-3</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="K29" t="s">
@@ -1800,14 +1800,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I30">
         <v>2E-3</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="K30" t="s">
@@ -1840,14 +1840,14 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I31">
         <v>2E-3</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="K31" t="s">
@@ -1880,14 +1880,14 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I32">
         <v>2E-3</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="K32" t="s">
@@ -1920,14 +1920,14 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I33">
         <v>2E-3</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="K33" t="s">
@@ -1960,14 +1960,14 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I34">
         <v>2E-3</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="K34" t="s">
@@ -2000,14 +2000,14 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I35">
         <v>2E-3</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26666.666666666664</v>
       </c>
       <c r="K35" t="s">
@@ -2040,14 +2040,14 @@
         <v>11</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I36">
         <v>2E-3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55000</v>
       </c>
       <c r="K36" t="s">
@@ -2080,14 +2080,14 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I37">
         <v>2E-3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18333.333333333332</v>
       </c>
       <c r="K37" t="s">
@@ -2120,14 +2120,14 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I38">
         <v>2E-3</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23333.333333333332</v>
       </c>
       <c r="K38" t="s">
@@ -2160,14 +2160,14 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I39">
         <v>2E-3</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23333.333333333332</v>
       </c>
       <c r="K39" t="s">
@@ -2200,14 +2200,14 @@
         <v>7</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I40">
         <v>2E-3</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26666.666666666664</v>
       </c>
       <c r="K40" t="s">
@@ -2240,14 +2240,14 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I41">
         <v>2E-3</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="K41" t="s">
@@ -2280,14 +2280,14 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I42">
         <v>2E-3</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="K42" t="s">
@@ -2320,14 +2320,14 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I43">
         <v>2E-3</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16666.666666666668</v>
       </c>
       <c r="K43" t="s">
@@ -2360,14 +2360,14 @@
         <v>7</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I44">
         <v>2E-3</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="K44" t="s">
@@ -2400,14 +2400,14 @@
         <v>9</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I45">
         <v>2E-3</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18333.333333333332</v>
       </c>
       <c r="K45" t="s">
@@ -2440,14 +2440,14 @@
         <v>7</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I46">
         <v>2E-3</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21666.666666666664</v>
       </c>
       <c r="K46" t="s">
@@ -2480,14 +2480,14 @@
         <v>8</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="I47">
         <v>2E-3</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38333.333333333336</v>
       </c>
       <c r="K47" t="s">
@@ -2511,13 +2511,13 @@
         <v>14</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f>1</f>
@@ -2527,8 +2527,8 @@
         <v>2E-3</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
-        <v>666.66666666666663</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>50</v>
@@ -2551,13 +2551,13 @@
         <v>14</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2566,8 +2566,8 @@
         <v>2E-3</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
-        <v>666.66666666666663</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
         <v>51</v>
@@ -2590,13 +2590,13 @@
         <v>14</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2605,8 +2605,8 @@
         <v>2E-3</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K50" t="s">
         <v>52</v>
